--- a/results/1990.xlsx
+++ b/results/1990.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{'person_id': 310000001988, 'prov_leader': '朱镕基', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1991-04-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{'person_id': 430000002017, 'prov_leader': '许达哲', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部1院（中国运载火箭技术研究院）15所型号副主任设计师、研究室主任'}}, {'person_id': 330000011983, 'prov_leader': '王芳', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）国务委员'}}]</t>
+          <t>[{'person_id': 340000002017, 'prov_leader': '李国英', 'experience': {'begin_time': Timestamp('1987-03-01 00:00:00'), 'end_time': Timestamp('1991-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局黄河水利委员会勘测规划设计研究院规划处1室副主任、综合室主任'}}, {'person_id': 230000011998, 'prov_leader': '徐有芳', 'experience': {'begin_time': Timestamp('1986-03-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央林业部/厅/局副部长'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}]</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[{'person_id': 110000011984, 'prov_leader': '李锡铭', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1992-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 440000011979, 'prov_leader': '习仲勋', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 450000012013, 'prov_leader': '彭清华', 'experience': {'begin_time': Timestamp('1988-08-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 5, 'job_name': '中央组织部秘书'}}, {'person_id': 440000011979, 'prov_leader': '习仲勋', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[{'person_id': 430000001989, 'prov_leader': '陈邦柱', 'experience': {'begin_time': Timestamp('1989-01-01 00:00:00'), 'end_time': Timestamp('1995-01-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省政府/国务院（综合）省长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[{'person_id': 340000001987, 'prov_leader': '卢荣景', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1998-08-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 9, 'job_name': '安徽省党委常委会/政治局书记'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[{'person_id': 630000002010, 'prov_leader': '骆惠宁', 'experience': {'begin_time': Timestamp('1985-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 4, 'job_name': '安徽省对外经济贸易部/厅/局引进处副处长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[{'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}, {'person_id': 330000011983, 'prov_leader': '王芳', 'experience': {'begin_time': Timestamp('1987-03-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央公安部/厅/局部长'}}]</t>
+          <t>[{'person_id': 440300002010, 'prov_leader': '许勤', 'experience': {'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1992-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央发展改革/计划委员会机电司电子处干部'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央商业部/厅/局部长'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}]</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[{'person_id': 230000001985, 'prov_leader': '侯捷', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局副部长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1989-01-01 00:00:00'), 'end_time': Timestamp('1992-03-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 9, 'job_name': '吉林省政府/国务院（综合）省长'}}]</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[{'person_id': 420000001995, 'prov_leader': '蒋祝平', 'experience': {'begin_time': Timestamp('1988-01-01 00:00:00'), 'end_time': Timestamp('1995-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央民用航空局局长'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家民族事务委员会副主任'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[{'person_id': 460000011998, 'prov_leader': '杜青林', 'experience': {'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1992-06-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 8, 'job_name': '吉林省政法委员会书记'}}]</t>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1985-05-01 00:00:00'), 'end_time': Timestamp('1992-04-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 8, 'job_name': '吉林省党委常委会/政治局副书记'}}]</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[{'person_id': 210000002015, 'prov_leader': '陈求发', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1991-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 4, 'job_name': '中央航空航天工业部一院249厂主任、副厂长等'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[{'person_id': 640000001983, 'prov_leader': '黑伯理', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1995-11-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}, {'person_id': 150000001979, 'prov_leader': '孔飞', 'experience': {'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}]</t>
+          <t>[{'person_id': 640000001983, 'prov_leader': '黑伯理', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1995-11-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 130000001999, 'prov_leader': '钮茂生', 'experience': {'begin_time': Timestamp('1988-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央直属机关工作委员会副书记'}}, {'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[{'person_id': 640000001983, 'prov_leader': '黑伯理', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1995-11-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}, {'person_id': 150000001979, 'prov_leader': '孔飞', 'experience': {'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}, {'person_id': 610000011979, 'prov_leader': '马文瑞', 'experience': {'begin_time': Timestamp('1984-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}}]</t>
+          <t>[{'person_id': 640000001983, 'prov_leader': '黑伯理', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1995-11-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[{'person_id': 620000001993, 'prov_leader': '阎海旺', 'experience': {'begin_time': Timestamp('1988-11-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 8, 'job_name': '甘肃省党委常委会/政治局副书记'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 540000001983, 'prov_leader': '多杰才旦', 'experience': {'begin_time': Timestamp('1986-01-01 00:00:00'), 'end_time': Timestamp('2000-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中国藏学研究中心总干事'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[{'person_id': 340000002000, 'prov_leader': '许仲林', 'experience': {'begin_time': Timestamp('1989-10-01 00:00:00'), 'end_time': Timestamp('1991-10-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 7, 'job_name': '江苏省组织部副部长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[{'person_id': 420000001995, 'prov_leader': '蒋祝平', 'experience': {'begin_time': Timestamp('1988-01-01 00:00:00'), 'end_time': Timestamp('1995-01-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 8, 'job_name': '江西省党委常委会/政治局副书记'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[{'person_id': 110000011995, 'prov_leader': '尉健行', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央监察部/厅/局部长'}}, {'person_id': 110000011995, 'prov_leader': '尉健行', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央监察部/厅/局部长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[{'person_id': 220000001999, 'prov_leader': '洪虎', 'experience': {'begin_time': Timestamp('1985-06-01 00:00:00'), 'end_time': Timestamp('1991-02-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央经济体制改革委员会秘书长'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}, {'person_id': 220000001999, 'prov_leader': '洪虎', 'experience': {'begin_time': Timestamp('1985-06-01 00:00:00'), 'end_time': Timestamp('1991-02-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央经济体制改革委员会秘书长'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}]</t>
+          <t>[{'person_id': 140000001993, 'prov_leader': '胡富国', 'experience': {'begin_time': Timestamp('1988-05-01 00:00:00'), 'end_time': Timestamp('1992-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家能源部副部长'}}, {'person_id': 460000011993, 'prov_leader': '阮崇武', 'experience': {'begin_time': Timestamp('1989-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局部长、党组书记'}}, {'person_id': 530000011998, 'prov_leader': '令狐安', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央经济体制改革委员会委员'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央商业部/厅/局部长'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家民族事务委员会副主任'}}, {'person_id': 460000011993, 'prov_leader': '阮崇武', 'experience': {'begin_time': Timestamp('1989-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局部长、党组书记'}}, {'person_id': 530000011998, 'prov_leader': '令狐安', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央人力资源和社会保障部/厅/局副部长、党组成员'}}, {'person_id': 530000011998, 'prov_leader': '令狐安', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央经济体制改革委员会委员'}}, {'person_id': 230000001985, 'prov_leader': '侯捷', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局副部长'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}]</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[{'person_id': 110000001983, 'prov_leader': '陈希同', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 330100012014, 'prov_leader': '龚正', 'experience': {'begin_time': Timestamp('1989-05-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央中国海关办公厅/室秘书'}}, {'person_id': 460000011993, 'prov_leader': '阮崇武', 'experience': {'begin_time': Timestamp('1989-07-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局部长、党组书记'}}, {'person_id': 650000001980, 'prov_leader': '司马义·艾买提', 'experience': {'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('1998-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央民族事务委员会主任、党组书记'}}, {'person_id': 460000012002, 'prov_leader': '白克明', 'experience': {'begin_time': Timestamp('1989-01-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央政策研究室教科文卫组负责人'}}, {'person_id': 210000011985, 'prov_leader': '李贵鲜', 'experience': {'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1998-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 330000011983, 'prov_leader': '王芳', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 610000001979, 'prov_leader': '于明涛', 'experience': {'begin_time': Timestamp('1985-03-01 00:00:00'), 'end_time': Timestamp('1995-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家审计署顾问'}}]</t>
+          <t>[{'person_id': 110000001983, 'prov_leader': '陈希同', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 330000002017, 'prov_leader': '袁家军', 'experience': {'begin_time': Timestamp('1984-07-01 00:00:00'), 'end_time': Timestamp('1992-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部五院501部学生、干部'}}, {'person_id': 230000011998, 'prov_leader': '徐有芳', 'experience': {'begin_time': Timestamp('1987-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央林业部/厅/局大兴安岭森林火灾扑火指挥部副总指挥'}}, {'person_id': 330000011983, 'prov_leader': '王芳', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）国务委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[{'person_id': 310000001986, 'prov_leader': '江泽民', 'experience': {'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局总书记'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[{'person_id': 330000001983, 'prov_leader': '薛驹', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 0, 'job_name': '中央中央党校副校长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}, {'person_id': 110000011984, 'prov_leader': '李锡铭', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[{'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 440000011979, 'prov_leader': '习仲勋', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
+          <t>[{'person_id': 530000001980, 'prov_leader': '刘明辉', 'experience': {'begin_time': Timestamp('1985-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 630000001978, 'prov_leader': '谭启龙', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 440000011979, 'prov_leader': '习仲勋', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 310000001986, 'prov_leader': '江泽民', 'experience': {'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局总书记'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1992-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}]</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}, {'person_id': 310000001986, 'prov_leader': '江泽民', 'experience': {'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局总书记'}}, {'person_id': 310000001986, 'prov_leader': '江泽民', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}]</t>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}, {'person_id': 530000001978, 'prov_leader': '安平生', 'experience': {'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[{'person_id': 330000002017, 'prov_leader': '袁家军', 'experience': {'begin_time': Timestamp('1984-07-01 00:00:00'), 'end_time': Timestamp('1992-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部五院501部学生、干部'}}, {'person_id': 330000002017, 'prov_leader': '袁家军', 'experience': {'begin_time': Timestamp('1984-07-01 00:00:00'), 'end_time': Timestamp('1992-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部五院501部学生、干部'}}]</t>
+          <t>[{'person_id': 230000001985, 'prov_leader': '侯捷', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局副部长'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}, {'person_id': 370000002020, 'prov_leader': '李干杰', 'experience': {'begin_time': Timestamp('1989-07-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家核安全局北京核安全中心工程师'}}, {'person_id': 610000001979, 'prov_leader': '于明涛', 'experience': {'begin_time': Timestamp('1985-03-01 00:00:00'), 'end_time': Timestamp('1995-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家审计署顾问'}}]</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[{'person_id': 330000001978, 'prov_leader': '铁瑛', 'experience': {'begin_time': Timestamp('1983-03-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省顾问委员会主任'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[{'person_id': 140000001993, 'prov_leader': '胡富国', 'experience': {'begin_time': Timestamp('1988-05-01 00:00:00'), 'end_time': Timestamp('1992-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家能源部副部长'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[{'person_id': 320000001983, 'prov_leader': '顾秀莲', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1998-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央化学工业部/厅/局部长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'person_id': 120000011990, 'prov_leader': '谭绍文', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 9, 'job_name': '天津市党委常委会/政治局书记'}}]</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'person_id': 110000001983, 'prov_leader': '陈希同', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 330000011983, 'prov_leader': '王芳', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）国务委员'}}]</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[{'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家民族事务委员会副主任'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家民族事务委员会副主任'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'person_id': 120000001993, 'prov_leader': '张立昌', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1993-06-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 8, 'job_name': '天津市党委常委会/政治局副书记'}}, {'person_id': 120000011990, 'prov_leader': '谭绍文', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 9, 'job_name': '天津市党委常委会/政治局书记'}}]</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[{'person_id': 150000002001, 'prov_leader': '乌云其木格', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1994-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 8, 'job_name': '内蒙古自治区党委常委会/政治局常委'}}, {'person_id': 150000011988, 'prov_leader': '王群', 'experience': {'begin_time': Timestamp('1987-08-01 00:00:00'), 'end_time': Timestamp('1994-08-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 9, 'job_name': '内蒙古自治区党委常委会/政治局书记'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[{'person_id': 130000001983, 'prov_leader': '张曙光', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 640000012013, 'prov_leader': '李建华', 'experience': {'begin_time': Timestamp('1988-10-01 00:00:00'), 'end_time': Timestamp('1992-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 5, 'job_name': '中央组织部经济科教干部局一处处长'}}, {'person_id': 530000001978, 'prov_leader': '安平生', 'experience': {'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 520000011980, 'prov_leader': '池必卿', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 410000001978, 'prov_leader': '段君毅', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 420000001980, 'prov_leader': '韩宁夫', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 230000011983, 'prov_leader': '李力安', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 530000001980, 'prov_leader': '刘明辉', 'experience': {'begin_time': Timestamp('1985-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 440000001981, 'prov_leader': '刘田夫', 'experience': {'begin_time': Timestamp('1983-04-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 140000001980, 'prov_leader': '罗贵波', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 450000001978, 'prov_leader': '乔晓光', 'experience': {'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 210000011978, 'prov_leader': '任仲夷', 'experience': {'begin_time': Timestamp('1985-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 630000001978, 'prov_leader': '谭启龙', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 310000001981, 'prov_leader': '汪道涵', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 110000011978, 'prov_leader': '吴德', 'experience': {'begin_time': Timestamp('1982-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 150000011979, 'prov_leader': '周惠', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[{'person_id': 230000002000, 'prov_leader': '宋法棠', 'experience': {'begin_time': Timestamp('1989-03-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山东省政府/国务院（综合）副省长'}}, {'person_id': 370000001995, 'prov_leader': '李春亭', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山东省政府/国务院（综合）副省长'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[{'person_id': 350000012001, 'prov_leader': '宋德福', 'experience': {'begin_time': Timestamp('1985-11-01 00:00:00'), 'end_time': Timestamp('1991-07-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 9, 'job_name': '中央共青团委书记'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[{'person_id': 530000011998, 'prov_leader': '令狐安', 'experience': {'begin_time': Timestamp('1989-09-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央经济体制改革委员会委员'}}, {'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}]</t>
+          <t>[{'person_id': 370000001985, 'prov_leader': '李昌安', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央政府/国务院（综合）副秘书长'}}]</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}, {'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 620000001978, 'prov_leader': '宋平', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[{'person_id': 220000001999, 'prov_leader': '洪虎', 'experience': {'begin_time': Timestamp('1985-06-01 00:00:00'), 'end_time': Timestamp('1991-02-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央经济体制改革委员会秘书长'}}]</t>
+          <t>[{'person_id': 430000002017, 'prov_leader': '许达哲', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部1院（中国运载火箭技术研究院）15所型号副主任设计师、研究室主任'}}]</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,1647 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[{'person_id': 360000001980, 'prov_leader': '白栋材', 'experience': {'begin_time': Timestamp('1985-09-01 00:00:00'), 'end_time': Timestamp('1997-02-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 370000001978, 'prov_leader': '白如冰', 'experience': {'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}}, {'person_id': 420000001978, 'prov_leader': '陈丕显', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会常委'}}, {'person_id': 540000001983, 'prov_leader': '多杰才旦', 'experience': {'begin_time': Timestamp('1986-01-01 00:00:00'), 'end_time': Timestamp('2000-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中国藏学研究中心总干事'}}]</t>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1992-06-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 640000012013, 'prov_leader': '李建华', 'experience': {'begin_time': Timestamp('1988-10-01 00:00:00'), 'end_time': Timestamp('1992-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 5, 'job_name': '中央组织部经济科教干部局一处处长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>140100011990</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>孙英</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '山西省太原市', 'type': '党委', 'rank': 7, 'job_name': '山西省太原市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>370500011990</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>周永康</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-09-01 00:00:00'), 'end_time': Timestamp('1996-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理'}</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>500000001997</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>蒲海清</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-08-01 00:00:00'), 'end_time': Timestamp('1993-02-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 8, 'job_name': '四川省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>450000001978</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>乔晓光</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[{'person_id': 110000011984, 'prov_leader': '李锡铭', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 640000012013, 'prov_leader': '李建华', 'experience': {'begin_time': Timestamp('1988-10-01 00:00:00'), 'end_time': Timestamp('1992-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 5, 'job_name': '中央组织部经济科教干部局一处处长'}}, {'person_id': 340000011978, 'prov_leader': '万里', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央党委常委会/政治局政治局委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>640000011987</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>沈达人</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-12-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 9, 'job_name': '江苏省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>220000001978</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>王恩茂</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-03-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[{'person_id': 150000001979, 'prov_leader': '孔飞', 'experience': {'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>530000001978</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>安平生</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央书记处书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>370000001978</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>白如冰</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1982-12-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[{'person_id': 110000011984, 'prov_leader': '李锡铭', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}}, {'person_id': 530000001978, 'prov_leader': '安平生', 'experience': {'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 520000011980, 'prov_leader': '池必卿', 'experience': {'begin_time': Timestamp('1987-11-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 410000001978, 'prov_leader': '段君毅', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 530000001980, 'prov_leader': '刘明辉', 'experience': {'begin_time': Timestamp('1985-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 140000001980, 'prov_leader': '罗贵波', 'experience': {'begin_time': Timestamp('1982-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 450000001978, 'prov_leader': '乔晓光', 'experience': {'begin_time': Timestamp('1983-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 150000011979, 'prov_leader': '周惠', 'experience': {'begin_time': Timestamp('1987-01-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>650000001980</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>司马义·艾买提</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央民族事务委员会主任、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>650000001980</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>司马义·艾买提</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[{'person_id': 630000001986, 'prov_leader': '宋瑞祥', 'experience': {'begin_time': Timestamp('1989-10-01 00:00:00'), 'end_time': Timestamp('1994-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央地质矿产部/厅/局副部长、党组副书记'}}, {'person_id': 210000011985, 'prov_leader': '李贵鲜', 'experience': {'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1993-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央中国人民银行行长、党组书记'}}, {'person_id': 640000001983, 'prov_leader': '黑伯理', 'experience': {'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1995-11-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会委员'}}, {'person_id': 130000001986, 'prov_leader': '解峰', 'experience': {'begin_time': Timestamp('1988-05-01 00:00:00'), 'end_time': Timestamp('2000-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}}, {'person_id': 210000011985, 'prov_leader': '李贵鲜', 'experience': {'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1993-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央中国人民银行行长、党组书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>650000001980</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>司马义·艾买提</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('1998-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央民族事务委员会主任、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>210000001982</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>全树仁</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-04-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>510000001983</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>杨析综</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-04-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '河南省', 'type': '人大', 'rank': 9, 'job_name': '河南省人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>530000001983</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>普朝柱</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('1995-08-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 9, 'job_name': '云南省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>450000001983</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>韦纯束</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-10-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('2002-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>630000001986</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>宋瑞祥</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-10-01 00:00:00'), 'end_time': Timestamp('1994-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央地质矿产部/厅/局副部长、党组副书记'}</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>650000001986</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>铁木尔·达瓦买提</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('1996-02-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 9, 'job_name': '新疆维吾尔自治区党委常委会/政治局区委副书记'}</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[{'person_id': 650000011986, 'prov_leader': '宋汉良', 'experience': {'begin_time': Timestamp('1985-10-01 00:00:00'), 'end_time': Timestamp('1994-09-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 9, 'job_name': '新疆维吾尔自治区党委常委会/政治局书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>650000001986</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>铁木尔·达瓦买提</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-10-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>330000001991</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>葛洪升</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1993-10-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 0, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000011989, 'prov_leader': '李泽民', 'experience': {'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1998-08-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 9, 'job_name': '浙江省党委常委会/政治局书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>510000001988</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>张皓若</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-01-01 00:00:00'), 'end_time': Timestamp('1993-02-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>630000001993</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>田成平</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 8, 'job_name': '青海省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 1, 'job_name': '上海市上海交通大学210教研组教师'}</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市上海交通大学共青团委副书记'}</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市上海交通大学政治部秘书'}</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 5, 'job_name': '上海市共青团委常委'}</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 5, 'job_name': '上海市学校部部长'}</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000001995, 'prov_leader': '徐匡迪', 'experience': {'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1991-06-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市文教局办公厅/室副主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '共青团', 'rank': 6, 'job_name': '上海市共青团委副书记'}</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市办公厅/室副主任'}</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市办公厅/室主任'}</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>310000001995</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>徐匡迪</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1991-06-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市文教局办公厅/室副主任'}</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>310000001995</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>徐匡迪</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1991-06-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市高等教育局局长'}</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>650000001994</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>阿不来提·阿不都热西提</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1983-08-01 00:00:00'), 'end_time': Timestamp('1991-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '新疆维吾尔自治区发展改革/计划委员会副主任、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>330000001997</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>柴松岳</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-02-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 8, 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>510000001993</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>肖秧</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '四川省重庆市', 'type': '党委', 'rank': 7, 'job_name': '四川省重庆市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>510000001996</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>宋宝瑞</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-12-01 00:00:00'), 'end_time': Timestamp('1996-02-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 8, 'job_name': '四川省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>310000002002</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>陈良宇</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-02-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '上海市黄浦区', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市黄浦区政府/国务院（综合）区长'}</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>630000002004</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>杨传堂</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-08-01 00:00:00'), 'end_time': Timestamp('1992-02-01 00:00:00'), 'location': '山东省', 'type': '共青团', 'rank': 6, 'job_name': '山东省共青团委副书记'}</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>630000002005</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>宋秀岩</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-02-01 00:00:00'), 'end_time': Timestamp('1992-04-01 00:00:00'), 'location': '青海省海东地区', 'type': '政府/国务院', 'rank': 7, 'job_name': '青海省海东地区政府/国务院（综合）副书记（正厅级）'}</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>330000002003</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>吕祖善</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1983-03-01 00:00:00'), 'end_time': Timestamp('1991-05-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '浙江省机械工业（第一机械）部/厅/局副厅长'}</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>330000002003</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>吕祖善</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1983-03-03 00:00:00'), 'end_time': Timestamp('1991-05-03 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '浙江省机械工业（第一机械）部/厅/局直属机关党委书记'}</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>510000001999</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>张中伟</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-06-01 00:00:00'), 'end_time': Timestamp('1993-02-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 7, 'job_name': '四川省农牧业厅/局厅长'}</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[{'person_id': 510000001988, 'prov_leader': '张皓若', 'experience': {'begin_time': Timestamp('1988-01-01 00:00:00'), 'end_time': Timestamp('1993-02-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>630000002010</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>骆惠宁</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 4, 'job_name': '安徽省对外经济贸易部/厅/局引进处副处长'}</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>630000002010</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>骆惠宁</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-05-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 5, 'job_name': '安徽省对外经济贸易部/厅/局技术进出口处副处长、处长'}</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>350000002005</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>黄小晶</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-01-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '福建省龙岩市', 'type': '党委', 'rank': 6, 'job_name': '福建省龙岩市党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>350000002005</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>黄小晶</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '福建省龙岩市', 'type': '政府/国务院', 'rank': 7, 'job_name': '福建省龙岩市政府/国务院（综合）行署专员'}</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>330000002012</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>夏宝龙</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-01-01 00:00:00'), 'end_time': Timestamp('1991-08-01 00:00:00'), 'location': '天津市河西区', 'type': '政府/国务院', 'rank': 7, 'job_name': '天津市河西区政府/国务院（综合）副区长'}</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '其他', 'rank': 4, 'job_name': '上海市上海市经济研究中心副处长'}</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 4, 'job_name': '上海市上海实事公司综合信息部副经理'}</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 5, 'job_name': '上海市发展改革/计划委员会长远计划综合处处长'}</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000001993, 'prov_leader': '万学远', 'experience': {'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 5, 'job_name': '上海市发展改革/计划委员会主任助理'}</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 5, 'job_name': '上海市发展改革/计划委员会计划投资处处长'}</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000001993, 'prov_leader': '万学远', 'experience': {'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市办公厅/室主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市发展改革/计划委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000001993, 'prov_leader': '万学远', 'experience': {'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}}, {'person_id': 330000001993, 'prov_leader': '万学远', 'experience': {'begin_time': Timestamp('1964-09-01 00:00:00'), 'end_time': Timestamp('1992-09-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长、秘书长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 7, 'job_name': '上海市上海联和投资有限公司总经理'}</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 7, 'job_name': '上海市上海信息投资股份有限公司董事长'}</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 7, 'job_name': '上海市上海航空公司董事长'}</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-07-01 00:00:00'), 'end_time': Timestamp('2001-02-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 7, 'job_name': '上海市上海航空股份有限公司监事会主席'}</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>430100012000</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>张云川</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-11-01 00:00:00'), 'end_time': Timestamp('1991-03-01 00:00:00'), 'location': '江西省赣州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '江西省赣州市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>430000002017</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>许达哲</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部1院（中国运载火箭技术研究院）15所型号副主任设计师、研究室主任'}</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[{'person_id': 340000002017, 'prov_leader': '李国英', 'experience': {'begin_time': Timestamp('1987-03-01 00:00:00'), 'end_time': Timestamp('1991-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央水利部/厅/局黄河水利委员会勘测规划设计研究院规划处1室副主任、综合室主任'}}, {'person_id': 350000001983, 'prov_leader': '胡平', 'experience': {'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>610000002016</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>胡和平</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-09-01 00:00:00'), 'end_time': Timestamp('1992-10-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市清华大学水电工程系历任数职'}</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>310000002017</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>应勇</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-07-01 00:00:00'), 'end_time': Timestamp('1992-08-01 00:00:00'), 'location': '浙江省台州市', 'type': '政府/国务院', 'rank': 5, 'job_name': '浙江省台州市公安部/厅/局处长'}</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>610100012004</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>袁纯清</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-03-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 7, 'job_name': '中央学校部部长'}</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>630100011997</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>赵乐际</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1986-04-01 00:00:00'), 'end_time': Timestamp('1991-02-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 6, 'job_name': '青海省商业部/厅/局副厅长'}</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>650000002015</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>雪克来提·扎克尔</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-05-01 00:00:00'), 'end_time': Timestamp('1992-11-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 4, 'job_name': '新疆维吾尔自治区经济委员会工业调度处副处长'}</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>330000002017</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>袁家军</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1984-07-01 00:00:00'), 'end_time': Timestamp('1992-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央航空航天工业部五院501部学生、干部'}</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>510000002016</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>尹力</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-09-01 00:00:00'), 'end_time': Timestamp('1993-07-01 00:00:00'), 'location': '俄罗斯', 'type': '学校', 'rank': 1, 'job_name': '俄罗斯前苏联社会卫生、经济与卫生事业管理科研所博士生'}</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>410000002020</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>尹弘</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-08-01 00:00:00'), 'end_time': Timestamp('1993-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 5, 'job_name': '上海市上海工业大学共青团委书记'}</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>220000001992</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>高严</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1992-03-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 8, 'job_name': '吉林省组织部部长'}</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>220000001992</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>高严</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-06-01 00:00:00'), 'end_time': Timestamp('1992-05-01 00:00:00'), 'location': '吉林省', 'type': '学校', 'rank': 0, 'job_name': '吉林省吉林大学法学院硕士生'}</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>450100012012</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>陈武</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1982-01-01 00:00:00'), 'end_time': Timestamp('1993-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 5, 'job_name': '广西壮族自治区发展改革/计划委员会综合处历任数职'}</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>330100012014</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>龚正</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-05-01 00:00:00'), 'end_time': Timestamp('1993-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 5, 'job_name': '中央中国海关办公厅/室秘书'}</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>320500011998</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>梁保华</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1981-11-01 00:00:00'), 'end_time': Timestamp('1994-07-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 7, 'job_name': '江苏省办公厅/室历任数职'}</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>630000001990</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>金基鹏</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-05-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 9, 'job_name': '青海省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>220000001999</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>洪虎</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-06-01 00:00:00'), 'end_time': Timestamp('1991-02-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央经济体制改革委员会秘书长'}</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>360000011985</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>万绍芬</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1995-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央统战部副部长'}</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>220000001985</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>高德占</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1987-06-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央林业部/厅/局部长、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>540000011985</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>伍精华</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-12-01 00:00:00'), 'end_time': Timestamp('1993-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家民族事务委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>350000001983</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>胡平</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央商业部/厅/局部长'}</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>350000001983</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>胡平</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-04-01 00:00:00'), 'end_time': Timestamp('1993-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央全国供销合作总社主任'}</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>310000011985</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>芮杏文</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-01-01 00:00:00'), 'end_time': Timestamp('1991-05-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央宣传思想工作领导小组副组长'}</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>220100011993</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>王云坤</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1989-03-01 00:00:00'), 'end_time': Timestamp('1992-12-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 8, 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>530000001980</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>刘明辉</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1985-01-01 00:00:00'), 'end_time': Timestamp('1992-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
